--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1313.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1313.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.000693861015594</v>
+        <v>1.046151399612427</v>
       </c>
       <c r="B1">
-        <v>2.36231685612356</v>
+        <v>1.961359143257141</v>
       </c>
       <c r="C1">
-        <v>5.292158966957621</v>
+        <v>8.249018669128418</v>
       </c>
       <c r="D1">
-        <v>2.37315599661031</v>
+        <v>1.578741312026978</v>
       </c>
       <c r="E1">
-        <v>1.270597036874226</v>
+        <v>0.7908744215965271</v>
       </c>
     </row>
   </sheetData>
